--- a/src/test/resources/testData/IngredientsAndComorbidities-ScrapperHackathon.xlsx
+++ b/src/test/resources/testData/IngredientsAndComorbidities-ScrapperHackathon.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="W3IiZX7vMGVVsytU/kHFFO2StvqfxUkMSHeZSzz5024="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="6Iq9pK+l+4Yahqrx+INPlspprvUzryOWLbw4ErTH4E8="/>
     </ext>
   </extLst>
 </workbook>
